--- a/documents/TechnicalProperties.xlsx
+++ b/documents/TechnicalProperties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dracc\OneDrive\Documentos\Globpar\Proyectos\excel\excel-convertion-manual-parsing\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B24D164-3841-46F4-B894-CBAEDE123652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B25A52-B9F5-4775-AB24-C55E342BDE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="TechnicalProperties" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -56,9 +55,6 @@
     <t>Unicode</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Installed Product Version</t>
   </si>
   <si>
@@ -87,6 +83,9 @@
   </si>
   <si>
     <t>https://me.sap.com/readinesscheck/Analysis('6019488')</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -580,47 +579,47 @@
         <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
